--- a/OCP2PCIe-H-F-4/OCP2PCIe-H-F-4-V3.0Beta/bom.xlsx
+++ b/OCP2PCIe-H-F-4/OCP2PCIe-H-F-4-V3.0Beta/bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziang\Documents\OCP2PCIe\OCP2PCIe-H-F-4\OCP2PCIe-H-F-4-V3.0Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10AC484A-CE03-4DD2-9621-DC977AEBABF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BD356C-2375-471B-9606-81D8D341F3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="970" windowWidth="28800" windowHeight="15460" xr2:uid="{64093D0D-6E4F-4B6F-8FB0-D1E35BBF07A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{64093D0D-6E4F-4B6F-8FB0-D1E35BBF07A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>J2</t>
   </si>
@@ -51,18 +51,6 @@
     <t>Generic connector, double row, 02x40, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>TestPoint_2Pole</t>
-  </si>
-  <si>
-    <t>FCI_61082:TestPlot</t>
-  </si>
-  <si>
-    <t>2-polar test point</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -108,18 +96,6 @@
     <t>J4</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>PCIe_x8</t>
-  </si>
-  <si>
-    <t>Connector_PCBEdge:BUS_PCIexpress_x8</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x32, row letter first pin numbering scheme (pin number consists of a letter for the row and a number for the pin index in this row. a1, ..., aN; b1, ..., bN), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -209,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>33.32 ohm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,15 +229,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0603电阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4420ohm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2700ohm</t>
+    <t>DM-02(拨码开关)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC12V to 5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.2 ohm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +273,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -329,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,10 +329,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC43263-6795-44BC-9B71-9AB70EC1DA4A}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -676,16 +672,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -706,321 +702,274 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -1030,48 +979,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>